--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1455.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1455.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.467687389251118</v>
+        <v>1.1552973985672</v>
       </c>
       <c r="B1">
-        <v>1.61625212162466</v>
+        <v>2.322333335876465</v>
       </c>
       <c r="C1">
-        <v>1.911154015472825</v>
+        <v>4.408517360687256</v>
       </c>
       <c r="D1">
-        <v>3.377958383251419</v>
+        <v>3.524778127670288</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.236665725708008</v>
       </c>
     </row>
   </sheetData>
